--- a/New XLSX Worksheet.xlsx
+++ b/New XLSX Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DA649-8FA8-420A-A0D9-55338C3D2A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="20201213" sheetId="3" r:id="rId3"/>
     <sheet name="20201214" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -343,18 +349,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -362,156 +362,19 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,198 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -748,251 +425,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1011,61 +446,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1323,21 +714,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1361,27 +752,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1403,49 +794,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1462,28 +852,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1491,12 +878,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1515,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1530,82 +917,90 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Z32" workbookViewId="0">
-      <selection activeCell="AQ27" sqref="AQ27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="8.88888888888889" style="2"/>
-    <col min="8" max="8" width="8.88888888888889" style="3"/>
-    <col min="9" max="11" width="8.88888888888889" style="2"/>
-    <col min="12" max="12" width="8.88888888888889" style="4"/>
-    <col min="13" max="15" width="8.88888888888889" style="2"/>
-    <col min="16" max="16" width="8.88888888888889" style="3"/>
-    <col min="17" max="23" width="8.88888888888889" style="2"/>
-    <col min="24" max="24" width="8.88888888888889" style="4"/>
-    <col min="25" max="36" width="8.88888888888889" style="2"/>
-    <col min="37" max="37" width="8.88888888888889" style="4"/>
-    <col min="38" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="7" width="8.875" style="2"/>
+    <col min="8" max="8" width="8.875" style="3"/>
+    <col min="9" max="11" width="8.875" style="2"/>
+    <col min="12" max="12" width="8.875" style="4"/>
+    <col min="13" max="15" width="8.875" style="2"/>
+    <col min="16" max="16" width="8.875" style="3"/>
+    <col min="17" max="23" width="8.875" style="2"/>
+    <col min="24" max="24" width="8.875" style="4"/>
+    <col min="25" max="36" width="8.875" style="2"/>
+    <col min="37" max="37" width="8.875" style="4"/>
+    <col min="38" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:38">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="12"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="13"/>
       <c r="AL1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1615,15 +1010,25 @@
       <c r="U2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="14"/>
       <c r="AL2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1634,16 +1039,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1653,15 +1067,25 @@
       <c r="U3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="14"/>
       <c r="AL3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1672,16 +1096,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1691,15 +1124,25 @@
       <c r="U4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="14"/>
       <c r="AL4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1710,16 +1153,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1729,15 +1181,25 @@
       <c r="U5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="14"/>
       <c r="AL5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1748,16 +1210,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1767,15 +1238,25 @@
       <c r="U6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="14"/>
       <c r="AL6" s="2" t="s">
         <v>54</v>
       </c>
@@ -1786,16 +1267,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1805,15 +1295,25 @@
       <c r="U7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="14"/>
       <c r="AL7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1824,16 +1324,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="2" t="s">
         <v>57</v>
       </c>
@@ -1843,15 +1352,25 @@
       <c r="U8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="14"/>
       <c r="AL8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1862,16 +1381,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>62</v>
       </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1881,15 +1409,25 @@
       <c r="U9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="14"/>
       <c r="AL9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1900,16 +1438,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1919,15 +1466,25 @@
       <c r="U10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="14"/>
       <c r="AL10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1938,16 +1495,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1957,15 +1523,25 @@
       <c r="U11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="14"/>
       <c r="AL11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1976,16 +1552,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1995,15 +1580,25 @@
       <c r="U12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="14"/>
       <c r="AL12" s="2" t="s">
         <v>57</v>
       </c>
@@ -2014,16 +1609,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2033,15 +1637,25 @@
       <c r="U13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="14"/>
       <c r="AL13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2052,16 +1666,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2071,15 +1694,25 @@
       <c r="U14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC14" s="2" t="s">
+      <c r="Y14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="14"/>
       <c r="AL14" s="2" t="s">
         <v>65</v>
       </c>
@@ -2090,16 +1723,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="2" t="s">
         <v>50</v>
       </c>
@@ -2109,15 +1751,25 @@
       <c r="U15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="14"/>
       <c r="AL15" s="2" t="s">
         <v>68</v>
       </c>
@@ -2128,28 +1780,48 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="14"/>
       <c r="AL16" s="2" t="s">
         <v>74</v>
       </c>
@@ -2157,28 +1829,48 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="14"/>
       <c r="AL17" s="2" t="s">
         <v>77</v>
       </c>
@@ -2186,65 +1878,264 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="17:33">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="14"/>
       <c r="Q18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="17:33">
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="14"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="14"/>
       <c r="Q19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="17:33">
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="14"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="14"/>
       <c r="Q20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="17:33">
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="14"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="14"/>
       <c r="Q21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="17:17">
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="14"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="14"/>
       <c r="Q22" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="17:17">
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="14"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="14"/>
       <c r="Q23" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="17.4" spans="1:38">
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="14"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="14"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="14"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="14"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="14"/>
+    </row>
+    <row r="26" spans="1:49" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="13"/>
       <c r="M26" s="7" t="s">
         <v>84</v>
@@ -2260,26 +2151,26 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="13"/>
-      <c r="Y26" s="5" t="s">
+      <c r="Y26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="12"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="13"/>
       <c r="AL26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>41</v>
       </c>
@@ -2316,15 +2207,25 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="14"/>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="14"/>
       <c r="AL27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>42</v>
       </c>
@@ -2368,15 +2269,25 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH28" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="14"/>
       <c r="AL28" s="2" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>43</v>
       </c>
@@ -2420,15 +2331,25 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="14"/>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AH29" s="2" t="s">
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="14"/>
       <c r="AL29" s="2" t="s">
         <v>43</v>
       </c>
@@ -2439,7 +2360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
@@ -2472,15 +2393,25 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="14"/>
-      <c r="Y30" s="2" t="s">
+      <c r="Y30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AH30" s="2" t="s">
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="14"/>
       <c r="AL30" s="2" t="s">
         <v>45</v>
       </c>
@@ -2491,7 +2422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>51</v>
       </c>
@@ -2524,15 +2455,25 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="14"/>
-      <c r="Y31" s="2" t="s">
+      <c r="Y31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="14"/>
       <c r="AL31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2543,7 +2484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
@@ -2576,15 +2517,25 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="14"/>
-      <c r="Y32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC32" s="2" t="s">
+      <c r="Y32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="14"/>
       <c r="AL32" s="2" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2546,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
@@ -2628,15 +2579,25 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="2" t="s">
+      <c r="Y33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="14"/>
       <c r="AL33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2647,7 +2608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>64</v>
       </c>
@@ -2680,15 +2641,25 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="14"/>
-      <c r="Y34" s="2" t="s">
+      <c r="Y34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11" t="s">
         <v>62</v>
       </c>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="14"/>
       <c r="AL34" s="2" t="s">
         <v>90</v>
       </c>
@@ -2699,7 +2670,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>67</v>
       </c>
@@ -2732,15 +2703,25 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="14"/>
-      <c r="Y35" s="2" t="s">
+      <c r="Y35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="14"/>
       <c r="AL35" s="2" t="s">
         <v>91</v>
       </c>
@@ -2751,7 +2732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -2784,15 +2765,25 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="14"/>
-      <c r="Y36" s="2" t="s">
+      <c r="Y36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AH36" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="14"/>
       <c r="AL36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2803,7 +2794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
@@ -2836,15 +2827,25 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="14"/>
-      <c r="Y37" s="2" t="s">
+      <c r="Y37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="14"/>
       <c r="AL37" s="2" t="s">
         <v>70</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>54</v>
       </c>
@@ -2888,15 +2889,25 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="14"/>
-      <c r="Y38" s="2" t="s">
+      <c r="Y38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AC38" s="2" t="s">
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="14"/>
       <c r="AL38" s="2" t="s">
         <v>95</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
@@ -2940,15 +2951,25 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="2" t="s">
+      <c r="Y39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="14"/>
       <c r="AL39" s="2" t="s">
         <v>75</v>
       </c>
@@ -2959,7 +2980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>44</v>
       </c>
@@ -2992,15 +3013,25 @@
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="2" t="s">
+      <c r="Y40" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="14"/>
       <c r="AL40" s="2" t="s">
         <v>78</v>
       </c>
@@ -3011,7 +3042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>50</v>
       </c>
@@ -3044,12 +3075,23 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="2" t="s">
+      <c r="Y41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="14"/>
       <c r="AL41" s="2" t="s">
         <v>97</v>
       </c>
@@ -3060,7 +3102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>74</v>
       </c>
@@ -3093,12 +3135,23 @@
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="14"/>
-      <c r="Y42" s="2" t="s">
+      <c r="Y42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="14"/>
       <c r="AL42" s="2" t="s">
         <v>55</v>
       </c>
@@ -3109,7 +3162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -3140,12 +3193,23 @@
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="14"/>
-      <c r="Y43" s="2" t="s">
+      <c r="Y43" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="14"/>
       <c r="AL43" s="2" t="s">
         <v>57</v>
       </c>
@@ -3156,7 +3220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3183,12 +3247,23 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="2" t="s">
+      <c r="Y44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11" t="s">
         <v>78</v>
       </c>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="14"/>
       <c r="AL44" s="2" t="s">
         <v>64</v>
       </c>
@@ -3199,7 +3274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3226,12 +3301,23 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="14"/>
-      <c r="Y45" s="2" t="s">
+      <c r="Y45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AC45" s="2" t="s">
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="14"/>
       <c r="AL45" s="2" t="s">
         <v>67</v>
       </c>
@@ -3242,7 +3328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3269,12 +3355,23 @@
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
       <c r="X46" s="14"/>
-      <c r="Y46" s="2" t="s">
+      <c r="Y46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="14"/>
       <c r="AL46" s="2" t="s">
         <v>65</v>
       </c>
@@ -3285,7 +3382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3312,9 +3409,21 @@
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="14"/>
-      <c r="AC47" s="2" t="s">
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="14"/>
       <c r="AL47" s="2" t="s">
         <v>68</v>
       </c>
@@ -3322,7 +3431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3349,9 +3458,21 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="14"/>
-      <c r="AC48" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="14"/>
       <c r="AL48" s="2" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3480,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3386,9 +3507,21 @@
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
       <c r="X49" s="14"/>
-      <c r="AC49" s="2" t="s">
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="14"/>
       <c r="AL49" s="2" t="s">
         <v>42</v>
       </c>
@@ -3396,10 +3529,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="29:43">
-      <c r="AC50" s="2" t="s">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="14"/>
       <c r="AL50" s="2" t="s">
         <v>44</v>
       </c>
@@ -3407,10 +3552,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="29:43">
-      <c r="AC51" s="2" t="s">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11" t="s">
         <v>52</v>
       </c>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="14"/>
       <c r="AL51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3418,10 +3575,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="29:43">
-      <c r="AC52" s="2" t="s">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="14"/>
       <c r="AL52" s="2" t="s">
         <v>74</v>
       </c>
@@ -3429,10 +3598,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="29:43">
-      <c r="AC53" s="2" t="s">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="14"/>
       <c r="AL53" s="2" t="s">
         <v>77</v>
       </c>
@@ -3440,198 +3621,379 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="29:43">
-      <c r="AC54" s="2" t="s">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="14"/>
       <c r="AQ54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="29:43">
-      <c r="AC55" s="2" t="s">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11" t="s">
         <v>66</v>
       </c>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="14"/>
       <c r="AQ55" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="29:43">
-      <c r="AC56" s="2" t="s">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="14"/>
       <c r="AQ56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="29:43">
-      <c r="AC57" s="2" t="s">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="14"/>
       <c r="AQ57" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="29:43">
-      <c r="AC58" s="2" t="s">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11" t="s">
         <v>94</v>
       </c>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="14"/>
       <c r="AQ58" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="29:43">
-      <c r="AC59" s="2" t="s">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11" t="s">
         <v>98</v>
       </c>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="14"/>
       <c r="AQ59" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="29:43">
-      <c r="AC60" s="2" t="s">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="14"/>
       <c r="AQ60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="29:43">
-      <c r="AC61" s="2" t="s">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="14"/>
       <c r="AQ61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="29:43">
-      <c r="AC62" s="2" t="s">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="14"/>
       <c r="AQ62" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="29:43">
-      <c r="AC63" s="2" t="s">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="14"/>
       <c r="AQ63" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="29:43">
-      <c r="AC64" s="2" t="s">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11" t="s">
         <v>78</v>
       </c>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="14"/>
       <c r="AQ64" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="29:43">
-      <c r="AC65" s="2" t="s">
+    <row r="65" spans="25:43" x14ac:dyDescent="0.15">
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="14"/>
       <c r="AQ65" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="29:43">
-      <c r="AC66" s="2" t="s">
+    <row r="66" spans="25:43" x14ac:dyDescent="0.15">
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="14"/>
       <c r="AQ66" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="29:43">
-      <c r="AC67" s="2" t="s">
+    <row r="67" spans="25:43" x14ac:dyDescent="0.15">
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="14"/>
       <c r="AQ67" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="29:43">
-      <c r="AC68" s="2" t="s">
+    <row r="68" spans="25:43" x14ac:dyDescent="0.15">
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="14"/>
       <c r="AQ68" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="43:43">
+    <row r="69" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ69" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="43:43">
+    <row r="70" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ70" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="43:43">
+    <row r="71" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ71" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="43:43">
+    <row r="72" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ72" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="43:43">
+    <row r="73" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ73" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="43:43">
+    <row r="74" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ74" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="43:43">
+    <row r="75" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ75" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="43:43">
+    <row r="76" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ76" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="43:43">
+    <row r="77" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="43:43">
+    <row r="78" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="43:43">
+    <row r="79" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ79" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="43:43">
+    <row r="80" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ80" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="43:43">
+    <row r="81" spans="43:43" x14ac:dyDescent="0.15">
       <c r="AQ81" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="43:43">
+    <row r="82" spans="43:43" x14ac:dyDescent="0.15">
       <c r="AQ82" s="2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New XLSX Worksheet.xlsx
+++ b/New XLSX Worksheet.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DA649-8FA8-420A-A0D9-55338C3D2A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CFAE7-A7B1-4F4C-8407-22147E0FA9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="20201212" sheetId="2" r:id="rId2"/>
     <sheet name="20201213" sheetId="3" r:id="rId3"/>
     <sheet name="20201214" sheetId="4" r:id="rId4"/>
+    <sheet name="20201217" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="109">
   <si>
     <t>DTO</t>
   </si>
@@ -344,13 +345,54 @@
   </si>
   <si>
     <t xml:space="preserve">                        ]</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntityManager</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PersistenceContext</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +410,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -429,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -445,6 +495,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3996,4 +4048,26 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC09D10-C781-49AA-A856-F6D5E5DC6471}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New XLSX Worksheet.xlsx
+++ b/New XLSX Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6257E25-0DFB-42B3-BE76-0EB95767C5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,14 @@
     <sheet name="20201214" sheetId="4" r:id="rId4"/>
     <sheet name="20201217" sheetId="5" r:id="rId5"/>
     <sheet name="20201219" sheetId="6" r:id="rId6"/>
+    <sheet name="20201222" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="140">
   <si>
     <t>DTO</t>
   </si>
@@ -346,8 +353,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>E</t>
@@ -356,8 +363,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>ntityManager</t>
@@ -368,8 +375,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>@</t>
@@ -378,8 +385,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>PersistenceContext</t>
@@ -460,186 +467,147 @@
   <si>
     <t>NotNull</t>
   </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odify JsonProperties depend on condition</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ontent</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ONE</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KIP</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,192 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -878,321 +666,64 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1450,21 +981,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1488,27 +1019,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1530,49 +1061,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1589,28 +1119,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1618,12 +1145,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1642,7 +1169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1657,32 +1184,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="8.87962962962963" style="3"/>
-    <col min="12" max="12" width="8.87962962962963" style="4"/>
-    <col min="13" max="23" width="8.87962962962963" style="3"/>
-    <col min="24" max="24" width="8.87962962962963" style="4"/>
-    <col min="25" max="36" width="8.87962962962963" style="3"/>
-    <col min="37" max="37" width="8.87962962962963" style="4"/>
-    <col min="38" max="16384" width="8.87962962962963" style="3"/>
+    <col min="1" max="11" width="8.875" style="3"/>
+    <col min="12" max="12" width="8.875" style="4"/>
+    <col min="13" max="23" width="8.875" style="3"/>
+    <col min="24" max="24" width="8.875" style="4"/>
+    <col min="25" max="36" width="8.875" style="3"/>
+    <col min="37" max="37" width="8.875" style="4"/>
+    <col min="38" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="17.4" spans="1:38">
+    <row r="1" spans="1:46" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1777,7 +1301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -1834,7 +1358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1891,7 +1415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +1472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -2005,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -2119,7 +1643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +1700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +1757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
@@ -2290,7 +1814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
@@ -2347,7 +1871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +1928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -2461,7 +1985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -2518,7 +2042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
@@ -2567,7 +2091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>77</v>
       </c>
@@ -2616,7 +2140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2650,7 +2174,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="10"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2682,7 +2206,7 @@
       <c r="AJ19" s="7"/>
       <c r="AK19" s="10"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2714,7 +2238,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="10"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2746,7 +2270,7 @@
       <c r="AJ21" s="7"/>
       <c r="AK21" s="10"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2776,7 +2300,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="10"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2806,7 +2330,7 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="10"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2833,7 +2357,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="10"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2860,7 +2384,7 @@
       <c r="AJ25" s="7"/>
       <c r="AK25" s="10"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="17.4" spans="1:38">
+    <row r="26" spans="1:49" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -2908,7 +2432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
@@ -2974,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +2560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +2622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -3160,7 +2684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -3222,7 +2746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
@@ -3284,7 +2808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
@@ -3346,7 +2870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3408,7 +2932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -3470,7 +2994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
@@ -3532,7 +3056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
@@ -3594,7 +3118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -3718,7 +3242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -3780,7 +3304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
@@ -3840,7 +3364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>74</v>
       </c>
@@ -3900,7 +3424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>77</v>
       </c>
@@ -3958,7 +3482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4012,7 +3536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4066,7 +3590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4120,7 +3644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4169,7 +3693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4218,7 +3742,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4267,7 +3791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="25:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -4290,7 +3814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="25:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -4313,7 +3837,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="25:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
@@ -4336,7 +3860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="25:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
@@ -4359,7 +3883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="25:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
@@ -4379,7 +3903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="25:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
@@ -4399,7 +3923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="25:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
@@ -4419,7 +3943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="25:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -4439,7 +3963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="25:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
@@ -4459,7 +3983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="25:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
@@ -4479,7 +4003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="25:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -4499,7 +4023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="25:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
@@ -4519,7 +4043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="25:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
@@ -4539,7 +4063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="25:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
@@ -4559,7 +4083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="25:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
@@ -4579,7 +4103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="25:43">
+    <row r="65" spans="25:43" x14ac:dyDescent="0.15">
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
@@ -4599,7 +4123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="25:43">
+    <row r="66" spans="25:43" x14ac:dyDescent="0.15">
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -4619,7 +4143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="25:43">
+    <row r="67" spans="25:43" x14ac:dyDescent="0.15">
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -4639,7 +4163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="25:43">
+    <row r="68" spans="25:43" x14ac:dyDescent="0.15">
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
@@ -4659,95 +4183,92 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="43:43">
+    <row r="69" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ69" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="43:43">
+    <row r="70" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ70" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="43:43">
+    <row r="71" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ71" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="43:43">
+    <row r="72" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ72" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="43:43">
+    <row r="73" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ73" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="43:43">
+    <row r="74" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ74" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="43:43">
+    <row r="75" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ75" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="43:43">
+    <row r="76" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ76" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="43:43">
+    <row r="77" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ77" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="43:43">
+    <row r="78" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="43:43">
+    <row r="79" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ79" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="43:43">
+    <row r="80" spans="25:43" x14ac:dyDescent="0.15">
       <c r="AQ80" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="43:43">
+    <row r="81" spans="43:43" x14ac:dyDescent="0.15">
       <c r="AQ81" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="43:43">
+    <row r="82" spans="43:43" x14ac:dyDescent="0.15">
       <c r="AQ82" s="3" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -4756,134 +4277,254 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>125</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" s="23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>130</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D387F5C3-DD91-47E0-B773-08124521B6C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>